--- a/data/AV_mex_count_optimized.xlsx
+++ b/data/AV_mex_count_optimized.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Car_ID</t>
   </si>
@@ -25,22 +25,19 @@
     <t>Messages_Received</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>car_01</t>
+  </si>
+  <si>
+    <t>car_02</t>
+  </si>
+  <si>
+    <t>car_03</t>
+  </si>
+  <si>
+    <t>car_04</t>
+  </si>
+  <si>
+    <t>car_05</t>
   </si>
   <si>
     <t>Total</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,10 +431,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -448,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -456,10 +453,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -467,10 +464,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -478,21 +475,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
